--- a/biology/Zoologie/Acrotemnus/Acrotemnus.xlsx
+++ b/biology/Zoologie/Acrotemnus/Acrotemnus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macropycnodon
 Acrotemnus est un genre fossile de poissons à nageoires rayées de l’ordre des Pycnodontiformes. Selon Paleobiology Database en 2023, ce genre a deux espèces référencées, Acrotemnus faba et Acrotemnus streckeri.
@@ -512,14 +524,85 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrit par Louis Agassiz en 1837[1],[2], le genre contenait alors une seule espèce, Acrotemnus faba † (Agassiz 1837)[3].
-Synonymes
-†Macropycnodon Shimada et al. 2010[4],[2].
-Fossiles
-Selon Paleobiology Database en 2023, ce genre a trois collections de fossiles référencées, deux collections du Niger et une du Texas aux États-Unis[2].
-Il vivait lors du Turonien moyen du Crétacé supérieur[2],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit par Louis Agassiz en 1837 le genre contenait alors une seule espèce, Acrotemnus faba † (Agassiz 1837).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Acrotemnus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acrotemnus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>†Macropycnodon Shimada et al. 2010,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acrotemnus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acrotemnus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, ce genre a trois collections de fossiles référencées, deux collections du Niger et une du Texas aux États-Unis.
+Il vivait lors du Turonien moyen du Crétacé supérieur,.
 </t>
         </is>
       </c>
